--- a/dataset/Adobereview.xlsx
+++ b/dataset/Adobereview.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A32186-E5EF-4B43-B6A4-9872F7F00460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Engaged with many customers at AdobeMAX - they all loveCCLibraries-https://youtube.com/watch?v=3k09arsdYzs…#buildingproductscustomerslove</t>
   </si>
@@ -69,25 +78,28 @@
   <si>
     <t>I am defeated Adobewins All becauseCCLibrarywouldn't load for me</t>
   </si>
+  <si>
+    <t>review</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -97,42 +109,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -322,120 +337,130 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.29"/>
+    <col min="1" max="1" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A14"/>
-    <hyperlink r:id="rId5" ref="A15"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset/Adobereview.xlsx
+++ b/dataset/Adobereview.xlsx
@@ -2,30 +2,167 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A32186-E5EF-4B43-B6A4-9872F7F00460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6232685C-F07C-A246-95AC-8766742D55EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{CADBC7E1-BDA2-3448-81F3-8C33E2D6AD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Engaged with many customers at AdobeMAX - they all loveCCLibraries-https://youtube.com/watch?v=3k09arsdYzs…#buildingproductscustomerslove</t>
-  </si>
-  <si>
-    <t>Just following up about high energy use issue you reported with the CCLibraryprocess. Are you still encountering the issue? Is everything up to date? ^DB</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <r>
+      <t xml:space="preserve">Engaged with many customers at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MAX - they all love </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCA10D"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://youtube.com/watch?v=3k09arsdYzs…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCA10D"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>#buildingproductscustomerslove</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just following up about high energy use issue you reported with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> process. Are you still encountering the issue? Is everything up to date? ^DB</t>
+    </r>
   </si>
   <si>
     <t>CVE-2019-7962 Adobe Illustrator CC versions 23.1 and earlier have an insecure library loading (dll hijacking) vulnerability. Successful exploitation could lead to privilege escalation. https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2019-7962…</t>
@@ -37,31 +174,584 @@
     <t>aside from Adobe Creative Cloud app's NEW "library" &amp; "your work" features, LIKING too it's new "resizeable-to-full-screen window" view &amp; access to CC APPLICATIONS! ... if you don't have CC subscription, here's link to a "screenshot sequence" probe of UI: https://drive.google.com/file/d/1MRRL70cq3D-GqqF2cKSw22iatmWKtl9n/view?usp=sharing</t>
   </si>
   <si>
-    <t>Add assets to CClibrariesfrom within@AdobeXDfor use across projects &amp; other supported Creative Cloud apps. Learn more here:https://adobe.ly/31V1xvd#AdobeXDMAX</t>
-  </si>
-  <si>
-    <t>Ever since I updated my Adobe, everything in theCCLibraryhas a white background! It's supposed to be transparent! WHY</t>
-  </si>
-  <si>
-    <t>1/5 to help us wrap our minds around AdobeCreative CloudLIBRARYfeatures, processes, notation systems, best practices, UIs &amp; such, we made anAdobeillustrator "mood board" file &amp; added the design elements to aCCPRACTICElibrary(s-l-o-w-l-y getting there)</t>
-  </si>
-  <si>
-    <t>Enhanced CCLibrariesIntegration –AdobeXD November Release 2019 |AdobeCreative Cloud</t>
-  </si>
-  <si>
-    <t>Also can I just say to whoever added "Libraries" and "AdobeStock" toCC, thanks so much for features that pop up constantly and are annoying as hell! Good job!</t>
+    <r>
+      <t xml:space="preserve">Add assets to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from within  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCA10D"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>@AdobeXD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for use across projects &amp; other supported Creative Cloud apps. Learn more here: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCA10D"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://adobe.ly/31V1xvd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCA10D"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>#AdobeXDMAX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ever since I updated my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, everything in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> has a white background! It's supposed to be transparent! WHY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/5 to help us wrap our minds around </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Creative Cloud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>LIBRARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> features, processes, notation systems, best practices, UIs &amp; such, we made an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> illustrator "mood board" file &amp; added the design elements to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PRACTICE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (s-l-o-w-l-y getting there)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enhanced </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Integration – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> XD November Release 2019 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Creative Cloud</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Also can I just say to whoever added "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>" and "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Stock" to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, thanks so much for features that pop up constantly and are annoying as hell! Good job!</t>
+    </r>
   </si>
   <si>
     <t>The whole creative cloud is a worth-it solution for me because I use -Desktop apps like Illustrator, PS, Premiere Pro
- -Services like Typekit (Adobe Fonts), Portfolio, CC Libraries, Doc Cloud
- -Mobile apps like Spark, Capture, Scan
- All grandfathered to a $30/mo black friday deal</t>
-  </si>
-  <si>
-    <t>This isn’t Apple’s fault at all. AdobeFresco and evenAdobePhotoshop Sketch before it both support importing custom brushes saved toCClibraries. Procreate supports importing entire brushlibrariesand customizing them to your heart’s content.</t>
-  </si>
-  <si>
-    <t>Was working on a simple design project. They recommended AdobeCCbecause of cloudlibrariesand an 8th Generation processor. Tried usingAdobeCs6 and 5th Gen. 2 second gif took me 1hr 14 minutes to render</t>
+-Services like Typekit (Adobe Fonts), Portfolio, CC Libraries, Doc Cloud
+-Mobile apps like Spark, Capture, Scan
+All grandfathered to a $30/mo black friday deal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This isn’t Apple’s fault at all. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Fresco and even </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Photoshop Sketch before it both support importing custom brushes saved to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Procreate supports importing entire brush </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and customizing them to your heart’s content.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Was working on a simple design project. They recommended </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> because of cloud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and an 8th Generation processor. Tried using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cs6 and 5th Gen. 2 second gif took me 1hr 14 minutes to render</t>
+    </r>
   </si>
   <si>
     <t>Work Smarter with Creative Cloud Libraries &amp; Microsoft Office 365 | Adobe Creative Cloud http://bit.ly/2MSnkiY</t>
@@ -70,13 +760,342 @@
     <t>Adobe CC Libraries per Microsoft Office 365 - https://punto-informatico.it/adobe-cc-libraries-microsoft-office-365/</t>
   </si>
   <si>
-    <t>I’m using the AdobePhotoshop Mix app on my iPad and when I’m trying to save to myCCLibrary, it keeps saying Network Error. I have WiFi that is working. What could be causing the problem please?</t>
-  </si>
-  <si>
-    <t>need to pick something from the CCLibraryand is showing up this... is this anotherbug?</t>
-  </si>
-  <si>
-    <t>I am defeated Adobewins All becauseCCLibrarywouldn't load for me</t>
+    <r>
+      <t xml:space="preserve">I’m using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Photoshop Mix app on my iPad and when I’m trying to save to my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, it keeps saying Network Error. I have WiFi that is working. What could be causing the problem please?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> need to pick something from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and is showing up this... is this another </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am defeated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> wins All because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> wouldn't load for me</t>
+    </r>
+  </si>
+  <si>
+    <t>In the last few updates to XD, multiple monitor support is no longer functional. In other words, if I want to place my CC libraries panel, off to the side, on another monitor, which I've been able to do since there was a cc libraries panel, it no longer works. It is locked into the XD app window. Latest OS, Latest GPU, latest drivers - CC and XD all current.</t>
+  </si>
+  <si>
+    <t>I'm glad you followed up, thanks. That written, your program (XD), ceasing to function (has broken multimonitor use - even though it HAS worked since beta) is not "ways to improve things" as you say, instead, in mondern workspace set-ups, multiple monitor configurations are reasonbly standard, so, please provide more information about why this mistake has been created and what's the timeline for fixing it, please.</t>
+  </si>
+  <si>
+    <t>After last update to PS CC 2020 I have starange issue, I cant drag and drop objects form my Libraries panel, but it happens only while using my tablet pen. When I do it with mouse it's working ok. </t>
+  </si>
+  <si>
+    <t>Thank you for quick reply, unfortunately updating drivers and reset of PS preferences didn't help.</t>
+  </si>
+  <si>
+    <t>CC library 2019 after update,  now support mp4? in AE 2020 I can add clip mp4 to my library, but after sync, when I want use it on other project, and I drag mp4 file from library list to project window in AE the file is missing (missing icon (color bars) in ae + a strange icon with shopcart).  So Its supported or not?  </t>
+  </si>
+  <si>
+    <t>Thre is a bug in After Effects that reads your video as Adobe Stock video, that's why you are seeing that problem. We are working on fixing the issue in After Effects.In Premiere Pro you can add the video via the context menu of the library element.</t>
+  </si>
+  <si>
+    <t>I didn't find any spesific forums on the CC work area or CC aspects in general so I'll post this here as I'm working with libraries also in PS. I have established a series of colors as library assets within PS but they don't show up in my CC area. I've never had library syncing or any syncing process on cause I hate the lag and different issues that brings with it, so I have always had the syncing option set to off, this has never been a problem cause all my library assets (colors, graphics, characters etc) have worked perfectly fine and they have always been available in my CC work area too. However now it's not. All I see is stuff I added two weeks ago, nothing from recent days. Everything is up to date and current in my local library panels in ID, PS, XD and Illu but its not showing up in my CC area.Through the past years I've added library assets from within PS, ID and Illu. They have always been available in the CC work area seconds after I added them in the local library panel in the different apps. What's going on? I've tried signing out and in numerous times. Is this some sort of Adobe server issue going on?</t>
+  </si>
+  <si>
+    <t>CC library integration is a fantastic feature, many thanks to the XD team. Adding, grouping and organizing library items is extremely easy and efficient.</t>
+  </si>
+  <si>
+    <t>Unfortunately I've encountered an issue that makes it unusable for my purposes. When adding a character style to the library, it seems to work just fine within XD. But if you open the XD-created library in another Adobe app, something gets lost in translation.</t>
+  </si>
+  <si>
+    <t>I've discovered the reason why my library character styles double in size in PS 2020. I chose a 144ppi document resolution in PS, whereas XD documents, to my understanding, are constrained to 72ppi. Logically, a character style created at 72ppi should double in size at 144ppi. But it begs the question, should there be a way to create "agnostic" library items that maintain their properties independently of the source or destination?</t>
+  </si>
+  <si>
+    <t>maybe this happens since updating to the new cc 2020, I cannot say clearly: The fans of my MacBook Pro 2015 (i7, 16 GB RAM) are working on a high and loud level always. This is caused by the process “node” which belongs to CC-library. My os: macOS 10.14.4.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sorry, NM, but you didn’t get my point. Even „</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>“ is wrong because the feature is called „</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>“. This name—„</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">“—is also used in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>’s marketing all over the world (even in Germany, in german text), so it should also be named this way in the software.</t>
+    </r>
   </si>
   <si>
     <t>review</t>
@@ -86,22 +1105,58 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCA10D"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF0563C1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF4B4B4B"/>
+      <name val="Adobe-clean-serif"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF14171A"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF14171A"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,16 +1176,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -147,56 +1208,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,128 +1494,191 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07895660-C93B-D94C-BAFE-4BC596696BAA}">
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" customWidth="1"/>
+    <col min="1" max="1" width="160.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="68">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="23">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="23">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="23">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="23">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="23">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="23">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="23">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="23">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://t.co/9MbNWxgvYC?amp=1" xr:uid="{09B1D381-7973-0345-88A3-9473C1DA8481}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://ift.tt/355IO28" xr:uid="{4CB31C1C-2E58-7943-995A-3FDB2C2AF8A4}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://drive.google.com/file/d/1MRRL70cq3D-GqqF2cKSw22iatmWKtl9n/view?usp=sharing" xr:uid="{1E86EEE1-49A1-4641-A08E-FF8629DF82BE}"/>
+    <hyperlink ref="A15" r:id="rId4" display="http://bit.ly/2MSnkiY" xr:uid="{720366A8-07F2-1C4A-873D-67324D5E40BC}"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://punto-informatico.it/adobe-cc-libraries-microsoft-office-365/" xr:uid="{303FD62D-FE4E-2745-A40C-074D6F96CCDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>